--- a/biology/Zoologie/Crête_(anatomie)/Crête_(anatomie).xlsx
+++ b/biology/Zoologie/Crête_(anatomie)/Crête_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_(anatomie)</t>
+          <t>Crête_(anatomie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une crête est une excroissance osseuse ou dermique sur la tête de certains tétrapodes dont les dinosaures et les squamates.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_(anatomie)</t>
+          <t>Crête_(anatomie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les oiseaux, il s'agit d'un appendice charnu généralement de couleurs vives porté, par exemple, par les gallinacés. La crête de ces derniers est en général dentelée, les dents étant appelées « crêtillons », et si la crête se termine en pointe vers l'arrière, on parle alors d'éperon.
 On nomme aussi « crête » des structures de forme approchante chez d'autres oiseaux, mais on parle le plus souvent de huppe quand il s'agit de plumes (ex : crête de la grue royale, des Cacatuinae).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_(anatomie)</t>
+          <t>Crête_(anatomie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fonctions de la crête chez les oiseaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette fonction est mal interprétée : 
 Souvent présente chez des oiseaux d'origine tropicale (Gallus gallus), elle pourrait jouer un rôle dans la thermorégulation de l'animal.
